--- a/Peacock-Kraft Continent/States.xlsx
+++ b/Peacock-Kraft Continent/States.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caleb\OneDrive\Documents\GitHub\DES-Pol\Peacock-Kraft Continent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED0460B-0470-4F78-9793-730CFA87856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68DC74A-769E-48EF-BDB6-6A8A11ACBDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,7 +810,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="3">
-        <v>685200000</v>
+        <v>548160000</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
@@ -835,7 +835,9 @@
       <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="3">
+        <v>10182000</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>42</v>
       </c>
